--- a/数据整理/stocks/A股/深证主板/000026-飞亚达.xlsx
+++ b/数据整理/stocks/A股/深证主板/000026-飞亚达.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005416</t>
+          <t>003165</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鹏华尊惠18个月定期开放混合A</t>
+          <t>鹏华弘嘉灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>34.90</t>
+          <t>7.73</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>3</v>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1956</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005417</t>
+          <t>005967</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鹏华尊惠18个月定期开放混合C</t>
+          <t>鹏华创新驱动混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>34.90</t>
+          <t>3.72</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1555</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002871</t>
+          <t>009667</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华夏智胜价值成长股票A</t>
+          <t>鹏华安庆混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93.28</t>
+          <t>7.28</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>35.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1230</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002872</t>
+          <t>009230</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华夏智胜价值成长股票C</t>
+          <t>鹏华安和混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>93.28</t>
+          <t>7.54</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>34.97</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1199</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -604,25 +654,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009230</t>
+          <t>005416</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>鹏华安和混合A</t>
+          <t>鹏华尊惠18个月定期开放混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>34.97</t>
+          <t>4.24</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>34.90</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0657</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>3</v>
       </c>
     </row>
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009231</t>
+          <t>002871</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>鹏华安和混合C</t>
+          <t>华夏智胜价值成长股票A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>34.97</t>
+          <t>4.62</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>3</v>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009667</t>
+          <t>009231</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>鹏华安庆混合A</t>
+          <t>鹏华安和混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>35.62</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.69</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
+          <t>34.97</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>009668</t>
+          <t>005417</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>鹏华安庆混合C</t>
+          <t>鹏华尊惠18个月定期开放混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>35.62</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.69</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
+          <t>34.90</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>003165</t>
+          <t>009668</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>鹏华弘嘉灵活配置混合A</t>
+          <t>鹏华安庆混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>89.32</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.53</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>7</v>
+          <t>35.62</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -754,15 +854,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>89.32</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>2.53</t>
         </is>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>7</v>
       </c>
     </row>
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>005967</t>
+          <t>002872</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>鹏华创新驱动混合</t>
+          <t>华夏智胜价值成长股票C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>93.80</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>6</v>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -805,7 +925,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -826,15 +946,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -846,25 +976,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000880</t>
+          <t>206002</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富国研究精选灵活配置混合</t>
+          <t>鹏华精选成长混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>92.59</t>
+          <t>10.05</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.89</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4181</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
       </c>
     </row>
@@ -874,26 +1014,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005967</t>
+          <t>003165</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鹏华创新驱动混合</t>
+          <t>鹏华弘嘉灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>92.15</t>
+          <t>7.92</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6.05</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3366</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -902,25 +1052,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>206002</t>
+          <t>000880</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>鹏华精选成长混合</t>
+          <t>富国研究精选灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>92.54</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.16</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1949</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>7</v>
       </c>
     </row>
@@ -930,26 +1090,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006976</t>
+          <t>009667</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>鹏华核心优势混合</t>
+          <t>鹏华安庆混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>92.44</t>
+          <t>7.53</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.29</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
+          <t>36.07</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1702</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001242</t>
+          <t>009230</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>博时中证淘金大数据100指数A</t>
+          <t>鹏华安和混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.98</t>
+          <t>7.25</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>7</v>
+          <t>33.29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1660</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001243</t>
+          <t>005967</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>博时中证淘金大数据100指数I</t>
+          <t>鹏华创新驱动混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>93.98</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1525</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>519975</t>
+          <t>006976</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>长信量化中小盘股票</t>
+          <t>鹏华核心优势混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>93.04</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.47</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>5</v>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1313</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -1052,15 +1252,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>37.25</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>2.08</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0909</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005417</t>
+          <t>519975</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>鹏华尊惠18个月定期开放混合C</t>
+          <t>长信量化中小盘股票</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>37.25</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.08</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>4</v>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0627</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>003165</t>
+          <t>001242</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>鹏华弘嘉灵活配置混合A</t>
+          <t>博时中证淘金大数据100指数A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>94.56</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>4</v>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>003166</t>
+          <t>001243</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>鹏华弘嘉灵活配置混合C</t>
+          <t>博时中证淘金大数据100指数I</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>94.56</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>4</v>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>009667</t>
+          <t>009231</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>鹏华安庆混合A</t>
+          <t>鹏华安和混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>36.07</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>2</v>
+          <t>33.29</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>009668</t>
+          <t>005417</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>鹏华安庆混合C</t>
+          <t>鹏华尊惠18个月定期开放混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>36.07</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>2</v>
+          <t>37.25</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>009230</t>
+          <t>009668</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>鹏华安和混合A</t>
+          <t>鹏华安庆混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>33.29</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>1</v>
+          <t>36.07</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>009231</t>
+          <t>003166</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>鹏华安和混合C</t>
+          <t>鹏华弘嘉灵活配置混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>33.29</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>1</v>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/000026-飞亚达.xlsx
+++ b/数据整理/stocks/A股/深证主板/000026-飞亚达.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1543,4 +1544,554 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010490</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华高质量增长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7859</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>206002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华精选成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3872</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006976</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华核心优势混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1853</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009667</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>25.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1312</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009230</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华安和混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>25.42</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1302</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005967</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华创新驱动混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1017</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005416</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>22.44</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0736</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003165</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0567</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009231</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华安和混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>25.42</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009668</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>25.72</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010491</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华高质量增长混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003166</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005417</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>22.44</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000026-飞亚达.xlsx
+++ b/数据整理/stocks/A股/深证主板/000026-飞亚达.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2094,4 +2095,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>206002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华精选成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2349</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005166</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实润和量化6个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>27.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000026-飞亚达.xlsx
+++ b/数据整理/stocks/A股/深证主板/000026-飞亚达.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2227,4 +2228,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000026-飞亚达.xlsx
+++ b/数据整理/stocks/A股/深证主板/000026-飞亚达.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2236,7 +2237,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2247,17 +2248,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2267,14 +2288,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>005166</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实润和量化6个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>27.12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2283,14 +2378,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>1.94</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="4">
@@ -2299,14 +2394,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="5">
@@ -2315,13 +2410,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>11</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.77</v>
       </c>
     </row>
